--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63c1fd45961f7800/デスクトップ/gitomisuke/Bagenda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63c1fd45961f7800/デスクトップ/gitomisuke/FUNCoordinateSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{B85E89D9-F228-4F74-BA3F-E79ADABBF24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB385EF-86A3-4C5C-8934-DE3964C648C5}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{B85E89D9-F228-4F74-BA3F-E79ADABBF24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FE543D-562D-4E4C-9127-82918C9A2381}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="86">
   <si>
     <t>ミュージアム</t>
     <phoneticPr fontId="1"/>
@@ -558,12 +558,123 @@
     <t>q</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>講堂</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡り廊下</t>
+    <rPh sb="0" eb="1">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わたり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デルタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デルタ40601</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廊下</t>
+    <rPh sb="0" eb="2">
+      <t>ロウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレ、階段</t>
+    <rPh sb="4" eb="6">
+      <t>カイダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンカフェ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廊下。トイレ</t>
+    <rPh sb="0" eb="2">
+      <t>ロウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共同研究室</t>
+    <rPh sb="0" eb="2">
+      <t>キョウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共同研究室</t>
+    <rPh sb="0" eb="5">
+      <t>キョウドウケンキュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階段、トイレ</t>
+    <rPh sb="0" eb="2">
+      <t>カイダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サークル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいいくかん　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事務局</t>
+    <rPh sb="0" eb="3">
+      <t>ジムキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廊下、といれ</t>
+    <rPh sb="0" eb="2">
+      <t>ロウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +730,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -657,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +810,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1773,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2180C79C-87B2-440B-8D74-CF6EFF252748}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
@@ -3150,581 +3292,639 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D115D31-348E-44A5-AAB3-90315A3ABE70}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView zoomScale="34" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="8" max="8" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="5.625" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="14" max="14" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="5.625" customWidth="1"/>
-    <col min="18" max="18" width="5.625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="9"/>
+    <col min="2" max="2" width="5.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="9"/>
+    <col min="4" max="4" width="5.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="9"/>
+    <col min="6" max="6" width="5.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="9"/>
+    <col min="8" max="8" width="5.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="9"/>
+    <col min="10" max="10" width="5.625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="9"/>
+    <col min="12" max="12" width="5.625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="9"/>
+    <col min="14" max="14" width="5.625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="9"/>
+    <col min="16" max="16" width="5.625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="16.625" style="9"/>
+    <col min="18" max="18" width="5.625" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="16.625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
     <row r="2" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="9">
         <v>22</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="9">
         <v>21</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="9">
         <v>20</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="9">
         <v>19</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="9">
         <v>18</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="9">
         <v>17</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="9">
         <v>16</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="9">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="9">
         <v>14</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11" s="9">
         <v>13</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12" s="9">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="A17" s="9">
         <v>7</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10">
+        <v>483</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10">
+        <v>484</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10">
+        <v>485</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="A18" s="9">
         <v>6</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+      <c r="A19" s="9">
         <v>5</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
+        <v>493</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10">
+        <v>494</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10">
+        <v>495</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
+      <c r="A20" s="9">
         <v>4</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+      <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+      <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
+      <c r="A23" s="9">
         <v>1</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+      <c r="A24" s="9">
         <v>0</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="2">
+      <c r="B25" s="9">
         <v>0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="9">
         <v>2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="9">
         <v>3</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="9">
         <v>4</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="9">
         <v>5</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="9">
         <v>6</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="9">
         <v>7</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="9">
         <v>8</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="9">
         <v>9</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="9">
         <v>10</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="9">
         <v>11</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="9">
         <v>12</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="9">
         <v>13</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="9">
         <v>14</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="9">
         <v>15</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="9">
         <v>16</v>
       </c>
     </row>
@@ -3736,584 +3936,646 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A2:U25"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="8" max="8" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="5.625" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
-    <col min="14" max="14" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="5.625" customWidth="1"/>
-    <col min="18" max="18" width="5.625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="11"/>
+    <col min="2" max="2" width="5.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="11"/>
+    <col min="4" max="4" width="5.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="11"/>
+    <col min="6" max="6" width="5.625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="11"/>
+    <col min="12" max="12" width="5.625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="11"/>
+    <col min="14" max="14" width="5.625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="25.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="25.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.625" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="16.625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
     <row r="2" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="11">
         <v>22</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="11">
         <v>21</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="11">
         <v>20</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="11">
         <v>19</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="11">
         <v>18</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="11">
         <v>17</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="11">
         <v>16</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="11">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="11">
         <v>14</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11" s="11">
         <v>13</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="U13" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13">
+        <v>522523524</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13">
+        <v>525526527</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13">
+        <v>528529</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13">
+        <v>531532533</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="13">
+        <v>534535536</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="U13" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+      <c r="A16" s="11">
         <v>8</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="A17" s="11">
         <v>7</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
+        <v>583</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <v>584</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
+        <v>585</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="A18" s="11">
         <v>6</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+      <c r="A19" s="11">
         <v>5</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
+        <v>593</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <v>594</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
+        <v>595</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
+      <c r="A20" s="11">
         <v>4</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+      <c r="A21" s="11">
         <v>3</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+      <c r="A22" s="11">
         <v>2</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
+      <c r="A23" s="11">
         <v>1</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+      <c r="A24" s="11">
         <v>0</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="2">
+      <c r="B25" s="11">
         <v>0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="11">
         <v>2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="11">
         <v>3</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="11">
         <v>4</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="11">
         <v>5</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="11">
         <v>6</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="11">
         <v>7</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="11">
         <v>8</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="11">
         <v>9</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="11">
         <v>10</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="11">
         <v>11</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="11">
         <v>12</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="11">
         <v>13</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="11">
         <v>14</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="11">
         <v>15</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="11">
         <v>16</v>
       </c>
     </row>

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63c1fd45961f7800/デスクトップ/gitomisuke/FUNCoordinateSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{B85E89D9-F228-4F74-BA3F-E79ADABBF24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FE543D-562D-4E4C-9127-82918C9A2381}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{B85E89D9-F228-4F74-BA3F-E79ADABBF24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92757E8-3F2C-4199-9EED-60F977575C12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
-    <sheet name="3" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="7" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="1" sheetId="7" r:id="rId3"/>
+    <sheet name="3" sheetId="1" r:id="rId3"/>
     <sheet name="4" sheetId="8" r:id="rId4"/>
     <sheet name="5" sheetId="9" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="78">
   <si>
     <t>ミュージアム</t>
     <phoneticPr fontId="1"/>
@@ -67,13 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>裏口</t>
-    <rPh sb="0" eb="2">
-      <t>ウラグチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社会連携センター</t>
     <rPh sb="0" eb="2">
       <t>シャカイ</t>
@@ -84,17 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>音スタ
-医務室</t>
-    <rPh sb="0" eb="1">
-      <t>オン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>イムシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エレ工</t>
     <rPh sb="2" eb="3">
       <t>コウ</t>
@@ -105,13 +87,6 @@
     <t>工房</t>
     <rPh sb="0" eb="2">
       <t>コウボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>知らん</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -156,11 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モール
-エレベータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通路
 体育倉庫</t>
     <rPh sb="0" eb="2">
@@ -183,28 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>階段
-通路
-トイレ</t>
-    <rPh sb="0" eb="2">
-      <t>カイダン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツウロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大講義室</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="4">
-      <t>コウギシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大講義室</t>
     <rPh sb="0" eb="4">
       <t>ダイコウギシツ</t>
@@ -212,35 +160,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通路
-心理学実験室</t>
-    <rPh sb="0" eb="2">
-      <t>ツウロ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シンリガク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ジッケンシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>研究室</t>
     <rPh sb="0" eb="3">
       <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通路
-トイレ
-自販機</t>
-    <rPh sb="0" eb="2">
-      <t>ツウロ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ジハンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -279,13 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教員室</t>
-    <rPh sb="0" eb="3">
-      <t>キョウインシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>のゆり研
 通路</t>
     <rPh sb="3" eb="4">
@@ -303,41 +218,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヌ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通路
-謎スペース</t>
-    <rPh sb="0" eb="2">
-      <t>ツウロ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナゾ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">階段
-トイレ
-通路
-</t>
-    <rPh sb="0" eb="2">
-      <t>カイダン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツウロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>警備員
-通路</t>
-    <rPh sb="0" eb="3">
-      <t>ケイビイン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ツウロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -641,18 +521,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>階段、トイレ</t>
-    <rPh sb="0" eb="2">
-      <t>カイダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サークル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>たいいくかん　</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -663,10 +532,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>廊下、といれ</t>
+    <t>通路、心理学実験室</t>
     <rPh sb="0" eb="2">
-      <t>ロウカ</t>
-    </rPh>
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="3" eb="9">
+      <t>シンリガクジッケンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大抗議室</t>
+    <rPh sb="0" eb="3">
+      <t>ダイコウギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モール階段</t>
+    <rPh sb="3" eb="5">
+      <t>カイダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">階段
+</t>
+    <rPh sb="0" eb="2">
+      <t>カイダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もーる、エレベーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社会連携センター</t>
+    <rPh sb="0" eb="4">
+      <t>シャカイレンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えれこう</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1164,10 +1076,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E02E2-4953-40E7-AFFF-805869902ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
   <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="42" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1199,7 +1113,9 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1220,15 +1136,15 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
@@ -1240,15 +1156,15 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R3" s="3"/>
     </row>
@@ -1280,11 +1196,11 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -1300,15 +1216,15 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R5" s="3"/>
     </row>
@@ -1340,35 +1256,35 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>31</v>
+      <c r="M7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="R7" s="3"/>
     </row>
@@ -1400,35 +1316,35 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
-        <v>23</v>
+      <c r="Q9" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="R9" s="3"/>
     </row>
@@ -1460,35 +1376,35 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="4" t="s">
-        <v>25</v>
+      <c r="K11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="4" t="s">
-        <v>25</v>
+      <c r="M11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="4" t="s">
-        <v>25</v>
+      <c r="O11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="4" t="s">
-        <v>25</v>
+      <c r="Q11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="R11" s="3"/>
     </row>
@@ -1520,35 +1436,35 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="4" t="s">
-        <v>18</v>
+      <c r="M13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R13" s="3"/>
     </row>
@@ -1580,35 +1496,35 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>24</v>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>363</v>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>364</v>
+      <c r="I15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>365</v>
+      <c r="K15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="4" t="s">
-        <v>22</v>
+      <c r="M15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R15" s="3"/>
     </row>
@@ -1638,43 +1554,39 @@
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
+      <c r="G17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="4" t="s">
-        <v>15</v>
+      <c r="M17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
@@ -1704,35 +1616,35 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>33</v>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="4" t="s">
-        <v>17</v>
+      <c r="M19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="R19" s="3"/>
     </row>
@@ -1764,35 +1676,35 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
+      <c r="G21" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="4" t="s">
-        <v>19</v>
+      <c r="M21" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="R21" s="3"/>
     </row>
@@ -1804,9 +1716,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1825,16 +1735,16 @@
         <v>1</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="4" t="s">
-        <v>32</v>
+      <c r="M23" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="R23" s="3"/>
     </row>
@@ -1843,9 +1753,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -2026,7 +1934,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2070,35 +1978,35 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="R7" s="1"/>
     </row>
@@ -2130,35 +2038,35 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="R9" s="1"/>
     </row>
@@ -2184,7 +2092,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2197,27 +2105,27 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="R11" s="1"/>
     </row>
@@ -2547,11 +2455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E02E2-4953-40E7-AFFF-805869902ED8}">
   <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="42" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="27" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2584,9 +2492,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2607,35 +2513,35 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R3" s="3"/>
     </row>
@@ -2667,35 +2573,35 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R5" s="3"/>
     </row>
@@ -2727,35 +2633,35 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>49</v>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="4" t="s">
-        <v>37</v>
+      <c r="M7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="R7" s="3"/>
     </row>
@@ -2787,35 +2693,35 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="4" t="s">
-        <v>39</v>
+      <c r="Q9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R9" s="3"/>
     </row>
@@ -2847,35 +2753,35 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>42</v>
+      <c r="I11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>42</v>
+      <c r="K11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>42</v>
+      <c r="M11" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
-        <v>42</v>
+      <c r="O11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
-        <v>42</v>
+      <c r="Q11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="R11" s="3"/>
     </row>
@@ -2907,35 +2813,35 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
+      <c r="G13" s="3">
+        <v>363</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>42</v>
+      <c r="I13" s="3">
+        <v>364</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>42</v>
+      <c r="K13" s="3">
+        <v>365</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>42</v>
+      <c r="M13" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="R13" s="3"/>
     </row>
@@ -2967,35 +2873,35 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>42</v>
+      <c r="M15" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="R15" s="3"/>
     </row>
@@ -3025,39 +2931,43 @@
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>42</v>
+      <c r="E17" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>42</v>
+      <c r="G17" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
-        <v>42</v>
+      <c r="M17" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
@@ -3087,35 +2997,35 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>42</v>
+      <c r="E19" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>42</v>
+      <c r="M19" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="R19" s="3"/>
     </row>
@@ -3143,56 +3053,51 @@
     </row>
     <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>42</v>
+      <c r="M21" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3201,67 +3106,8 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
+    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>6</v>
-      </c>
-      <c r="I25" s="2">
-        <v>7</v>
-      </c>
-      <c r="J25" s="2">
-        <v>8</v>
-      </c>
-      <c r="K25" s="2">
-        <v>9</v>
-      </c>
       <c r="L25" s="2">
         <v>10</v>
       </c>
@@ -3393,11 +3239,11 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3407,7 +3253,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -3443,27 +3289,27 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -3501,7 +3347,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -3511,7 +3357,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -3549,23 +3395,23 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -3603,23 +3449,23 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -3657,11 +3503,11 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -3669,7 +3515,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -3705,11 +3551,11 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10">
@@ -3759,7 +3605,7 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -3777,7 +3623,7 @@
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -3938,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
   <dimension ref="A2:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="32" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3993,7 +3839,7 @@
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4039,11 +3885,11 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -4087,7 +3933,7 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -4133,11 +3979,11 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -4147,7 +3993,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -4183,7 +4029,7 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -4195,7 +4041,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -4231,11 +4077,11 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13">
@@ -4251,7 +4097,7 @@
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="13">
@@ -4263,7 +4109,7 @@
       </c>
       <c r="R13" s="12"/>
       <c r="U13" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4296,7 +4142,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4306,7 +4152,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -4342,11 +4188,11 @@
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12">
@@ -4361,15 +4207,13 @@
         <v>585</v>
       </c>
       <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="M17" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="N17" s="12"/>
-      <c r="O17" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4400,7 +4244,7 @@
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -4418,16 +4262,12 @@
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="N19" s="12"/>
-      <c r="O19" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="12" t="s">
-        <v>83</v>
-      </c>
+      <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4468,16 +4308,12 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="N21" s="12"/>
-      <c r="O21" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4507,11 +4343,17 @@
         <v>1</v>
       </c>
       <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63c1fd45961f7800/デスクトップ/gitomisuke/FUNCoordinateSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{B85E89D9-F228-4F74-BA3F-E79ADABBF24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92757E8-3F2C-4199-9EED-60F977575C12}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDC0636-CA6F-4D30-95F8-D07393C9EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="7" r:id="rId1"/>
+    <sheet name="3" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="3" sheetId="1" r:id="rId3"/>
+    <sheet name="1" sheetId="7" r:id="rId3"/>
     <sheet name="4" sheetId="8" r:id="rId4"/>
     <sheet name="5" sheetId="9" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="86">
   <si>
     <t>ミュージアム</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>裏口</t>
+    <rPh sb="0" eb="2">
+      <t>ウラグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>社会連携センター</t>
     <rPh sb="0" eb="2">
       <t>シャカイ</t>
@@ -77,6 +84,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>音スタ
+医務室</t>
+    <rPh sb="0" eb="1">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イムシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>エレ工</t>
     <rPh sb="2" eb="3">
       <t>コウ</t>
@@ -87,6 +105,13 @@
     <t>工房</t>
     <rPh sb="0" eb="2">
       <t>コウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知らん</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -131,6 +156,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>モール
+エレベータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>通路
 体育倉庫</t>
     <rPh sb="0" eb="2">
@@ -153,6 +183,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>階段
+通路
+トイレ</t>
+    <rPh sb="0" eb="2">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大講義室</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>コウギシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>大講義室</t>
     <rPh sb="0" eb="4">
       <t>ダイコウギシツ</t>
@@ -160,9 +212,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>通路
+心理学実験室</t>
+    <rPh sb="0" eb="2">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンリガク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジッケンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>研究室</t>
     <rPh sb="0" eb="3">
       <t>ケンキュウシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通路
+トイレ
+自販機</t>
+    <rPh sb="0" eb="2">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジハンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,15 +267,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通路
-エレベータ</t>
-    <rPh sb="0" eb="2">
-      <t>ツウロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フリースペース</t>
+    <t>教員室</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -218,6 +291,41 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通路
+謎スペース</t>
+    <rPh sb="0" eb="2">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">階段
+トイレ
+通路
+</t>
+    <rPh sb="0" eb="2">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警備員
+通路</t>
+    <rPh sb="0" eb="3">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,6 +633,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>たいいくかん　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>事務局</t>
     <rPh sb="0" eb="3">
       <t>ジムキョク</t>
@@ -532,53 +644,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通路、心理学実験室</t>
+    <t>廊下、といれ</t>
     <rPh sb="0" eb="2">
+      <t>ロウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレ
+通路</t>
+    <rPh sb="4" eb="6">
       <t>ツウロ</t>
     </rPh>
-    <rPh sb="3" eb="9">
-      <t>シンリガクジッケンシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大抗議室</t>
-    <rPh sb="0" eb="3">
-      <t>ダイコウギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モール階段</t>
-    <rPh sb="3" eb="5">
-      <t>カイダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">階段
-</t>
-    <rPh sb="0" eb="2">
-      <t>カイダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もーる、エレベーター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社会連携センター</t>
-    <rPh sb="0" eb="4">
-      <t>シャカイレンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>えれこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サークル
+通路</t>
+    <rPh sb="5" eb="7">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレベータ
+通路</t>
+    <rPh sb="6" eb="8">
+      <t>ツウロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -696,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +832,12 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -754,10 +853,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,11 +1171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
-  <dimension ref="A2:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E02E2-4953-40E7-AFFF-805869902ED8}">
+  <dimension ref="A2:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="42" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A3" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1108,14 +1203,12 @@
   <sheetData>
     <row r="2" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1132,45 +1225,45 @@
     </row>
     <row r="3" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1192,45 +1285,45 @@
     </row>
     <row r="5" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
+      <c r="E5" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1252,45 +1345,45 @@
     </row>
     <row r="7" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="4" t="s">
-        <v>25</v>
+      <c r="M7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1312,45 +1405,45 @@
     </row>
     <row r="9" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>26</v>
+      <c r="O9" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1372,45 +1465,45 @@
     </row>
     <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>30</v>
+      <c r="M11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1432,45 +1525,45 @@
     </row>
     <row r="13" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>30</v>
+      <c r="G13" s="3">
+        <v>363</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>30</v>
+      <c r="I13" s="3">
+        <v>364</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>30</v>
+      <c r="K13" s="3">
+        <v>365</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>30</v>
+      <c r="M13" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1492,45 +1585,49 @@
     </row>
     <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>30</v>
+      <c r="G15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>30</v>
+      <c r="M15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1552,45 +1649,45 @@
     </row>
     <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
-        <v>30</v>
+      <c r="M17" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1612,51 +1709,53 @@
     </row>
     <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>30</v>
+      <c r="G19" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>30</v>
+      <c r="M19" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1672,58 +1771,30 @@
     </row>
     <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+        <v>0</v>
+      </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1731,85 +1802,55 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E23" s="2">
         <v>3</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F23" s="2">
         <v>4</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H23" s="2">
         <v>6</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I23" s="2">
         <v>7</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J23" s="2">
         <v>8</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K23" s="2">
         <v>9</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L23" s="2">
         <v>10</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M23" s="2">
         <v>11</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N23" s="2">
         <v>12</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O23" s="2">
         <v>13</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P23" s="2">
         <v>14</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q23" s="2">
         <v>15</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R23" s="2">
         <v>16</v>
       </c>
     </row>
@@ -1934,7 +1975,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1978,35 +2019,35 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R7" s="1"/>
     </row>
@@ -2038,35 +2079,35 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="R9" s="1"/>
     </row>
@@ -2092,7 +2133,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2105,27 +2146,27 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="R11" s="1"/>
     </row>
@@ -2455,11 +2496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E02E2-4953-40E7-AFFF-805869902ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
   <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView zoomScale="27" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A5" zoomScale="42" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2492,7 +2533,9 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2513,35 +2556,35 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="R3" s="3"/>
     </row>
@@ -2573,35 +2616,35 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="R5" s="3"/>
     </row>
@@ -2633,35 +2676,35 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>22</v>
+      <c r="M7" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R7" s="3"/>
     </row>
@@ -2693,35 +2736,35 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
-        <v>16</v>
+      <c r="Q9" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="R9" s="3"/>
     </row>
@@ -2753,35 +2796,35 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
-        <v>21</v>
+      <c r="I11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="4" t="s">
-        <v>17</v>
+      <c r="K11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="4" t="s">
-        <v>63</v>
+      <c r="M11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="4" t="s">
-        <v>17</v>
+      <c r="O11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="4" t="s">
-        <v>17</v>
+      <c r="Q11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="R11" s="3"/>
     </row>
@@ -2813,35 +2856,35 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>363</v>
+      <c r="G13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>364</v>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>365</v>
+      <c r="K13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="4" t="s">
-        <v>71</v>
+      <c r="M13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="R13" s="3"/>
     </row>
@@ -2873,35 +2916,35 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>73</v>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="4" t="s">
-        <v>8</v>
+      <c r="M15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="R15" s="3"/>
     </row>
@@ -2931,43 +2974,39 @@
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
-        <v>0</v>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>76</v>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="4" t="s">
-        <v>12</v>
+      <c r="M17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
@@ -2997,35 +3036,35 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>74</v>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="4" t="s">
-        <v>13</v>
+      <c r="M19" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R19" s="3"/>
     </row>
@@ -3053,51 +3092,56 @@
     </row>
     <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="4" t="s">
-        <v>7</v>
+      <c r="M21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="A22" s="2">
         <v>2</v>
       </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>6</v>
-      </c>
-      <c r="I22" s="2">
-        <v>7</v>
-      </c>
-      <c r="J22" s="2">
-        <v>8</v>
-      </c>
-      <c r="K22" s="2">
-        <v>9</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3106,8 +3150,67 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
     <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7</v>
+      </c>
+      <c r="J25" s="2">
+        <v>8</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9</v>
+      </c>
       <c r="L25" s="2">
         <v>10</v>
       </c>
@@ -3239,11 +3342,11 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -3253,7 +3356,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -3289,27 +3392,27 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -3347,7 +3450,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -3357,7 +3460,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -3395,23 +3498,23 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -3449,23 +3552,23 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -3503,11 +3606,11 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -3515,7 +3618,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -3551,11 +3654,11 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10">
@@ -3605,7 +3708,7 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -3623,7 +3726,7 @@
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -3782,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
-  <dimension ref="A2:U25"/>
+  <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="32" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3813,7 +3916,7 @@
   <sheetData>
     <row r="2" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -3835,11 +3938,11 @@
     </row>
     <row r="3" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -3859,7 +3962,7 @@
     </row>
     <row r="4" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3881,15 +3984,15 @@
     </row>
     <row r="5" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -3907,7 +4010,7 @@
     </row>
     <row r="6" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3929,11 +4032,11 @@
     </row>
     <row r="7" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -3953,7 +4056,7 @@
     </row>
     <row r="8" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -3975,15 +4078,15 @@
     </row>
     <row r="9" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -3993,7 +4096,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -4003,7 +4106,7 @@
     </row>
     <row r="10" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4025,11 +4128,11 @@
     </row>
     <row r="11" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -4041,17 +4144,20 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
+      <c r="U11" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4073,15 +4179,15 @@
     </row>
     <row r="13" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13">
@@ -4097,7 +4203,7 @@
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="13">
@@ -4108,13 +4214,10 @@
         <v>534535536</v>
       </c>
       <c r="R13" s="12"/>
-      <c r="U13" s="11" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="14" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4136,33 +4239,43 @@
     </row>
     <row r="15" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4184,15 +4297,15 @@
     </row>
     <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12">
@@ -4207,18 +4320,22 @@
         <v>585</v>
       </c>
       <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
-        <v>63</v>
+      <c r="M17" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4240,11 +4357,11 @@
     </row>
     <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -4261,18 +4378,22 @@
         <v>595</v>
       </c>
       <c r="L19" s="12"/>
-      <c r="M19" s="12" t="s">
-        <v>8</v>
+      <c r="M19" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="O19" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -4294,42 +4415,36 @@
     </row>
     <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
-        <v>3</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="O21" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="Q21" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
-        <v>2</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+        <v>0</v>
+      </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -4339,85 +4454,55 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="11">
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="11">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="D23" s="11">
         <v>2</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E23" s="11">
         <v>3</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F23" s="11">
         <v>4</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G23" s="11">
         <v>5</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H23" s="11">
         <v>6</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I23" s="11">
         <v>7</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J23" s="11">
         <v>8</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K23" s="11">
         <v>9</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L23" s="11">
         <v>10</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M23" s="11">
         <v>11</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N23" s="11">
         <v>12</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O23" s="11">
         <v>13</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P23" s="11">
         <v>14</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q23" s="11">
         <v>15</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R23" s="11">
         <v>16</v>
       </c>
     </row>

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63c1fd45961f7800/デスクトップ/gitomisuke/FUNCoordinateSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{EFDC0636-CA6F-4D30-95F8-D07393C9EBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DFBD31D-2B25-4A2C-B039-1B375859E534}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BE1584-4D3F-48D9-8089-48891DE85E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="89">
   <si>
     <t>ミュージアム</t>
     <phoneticPr fontId="1"/>
@@ -629,10 +629,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サークル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>たいいくかん　</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -659,19 +655,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サークル
-通路</t>
-    <rPh sb="5" eb="7">
-      <t>ツウロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エレベータ
 通路</t>
     <rPh sb="6" eb="8">
       <t>ツウロ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サ1,2,3
+通路
+階段</t>
+    <rPh sb="7" eb="9">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サ8,9,10,11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サ12,13,14,15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サ4,5,6,7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -765,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,9 +816,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,7 +1273,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -2358,7 +2371,7 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>0</v>
       </c>
       <c r="B22" s="10"/>
@@ -2444,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView zoomScale="29" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="46" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -3129,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D115D31-348E-44A5-AAB3-90315A3ABE70}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView zoomScale="34" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A8" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3157,6 +3170,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>20</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3177,7 +3193,7 @@
     </row>
     <row r="3" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3199,7 +3215,7 @@
     </row>
     <row r="4" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3221,7 +3237,7 @@
     </row>
     <row r="5" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -3249,7 +3265,7 @@
     </row>
     <row r="6" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3271,7 +3287,7 @@
     </row>
     <row r="7" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -3305,7 +3321,7 @@
     </row>
     <row r="8" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3327,7 +3343,7 @@
     </row>
     <row r="9" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3353,7 +3369,7 @@
     </row>
     <row r="10" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3375,7 +3391,7 @@
     </row>
     <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3407,7 +3423,7 @@
     </row>
     <row r="12" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3429,7 +3445,7 @@
     </row>
     <row r="13" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3461,7 +3477,7 @@
     </row>
     <row r="14" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3483,7 +3499,7 @@
     </row>
     <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3511,7 +3527,7 @@
     </row>
     <row r="16" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3533,11 +3549,11 @@
     </row>
     <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
@@ -3565,7 +3581,7 @@
     </row>
     <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3587,11 +3603,11 @@
     </row>
     <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3619,7 +3635,7 @@
     </row>
     <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3641,7 +3657,7 @@
     </row>
     <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
         <v>7</v>
@@ -3662,7 +3678,7 @@
     </row>
     <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -3673,9 +3689,6 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <v>0</v>
-      </c>
       <c r="B23" s="4">
         <v>0</v>
       </c>
@@ -3730,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
   <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3987,7 +4000,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -4164,7 +4177,7 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
@@ -4222,7 +4235,7 @@
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
@@ -4230,7 +4243,7 @@
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R19" s="7"/>
     </row>
@@ -4249,7 +4262,9 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -4262,15 +4277,15 @@
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="R21" s="7"/>
     </row>

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63c1fd45961f7800/デスクトップ/gitomisuke/FUNCoordinateSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BE1584-4D3F-48D9-8089-48891DE85E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D8BE1584-4D3F-48D9-8089-48891DE85E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B55A06E2-6E22-4B3E-9652-CA0036E30EAB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="11415" yWindow="0" windowWidth="11730" windowHeight="11685" activeTab="2" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="90">
   <si>
     <t>ミュージアム</t>
     <phoneticPr fontId="1"/>
@@ -688,6 +688,10 @@
   </si>
   <si>
     <t>サ4,5,6,7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロッカー通路</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1154,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E02E2-4953-40E7-AFFF-805869902ED8}">
   <dimension ref="A2:R23"/>
   <sheetViews>
-    <sheetView zoomScale="30" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="30" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1845,7 +1849,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView zoomScale="36" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2457,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="46" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="36" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2702,7 +2706,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
@@ -3142,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D115D31-348E-44A5-AAB3-90315A3ABE70}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:A22"/>
+    <sheetView topLeftCell="E15" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3743,7 +3747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
   <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="34" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63c1fd45961f7800/デスクトップ/gitomisuke/FUNCoordinateSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D8BE1584-4D3F-48D9-8089-48891DE85E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B55A06E2-6E22-4B3E-9652-CA0036E30EAB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1574F538-8646-46E6-9050-918261AB17C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="0" windowWidth="11730" windowHeight="11685" activeTab="2" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -427,41 +427,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>研究室（122,123,124)</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室(125,126,127)</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室(128,129,130)</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室(131,132,133)</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室(134,135)</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エレベーター</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -692,6 +657,41 @@
   </si>
   <si>
     <t>ロッカー通路</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室（122,123,124)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室(125,126,127)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室(128,129,130)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室(131,132,133)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室(134,135)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E02E2-4953-40E7-AFFF-805869902ED8}">
   <dimension ref="A2:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="30" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -1959,7 +1959,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2003,23 +2003,23 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11" t="s">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11" t="s">
@@ -2087,11 +2087,11 @@
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R9" s="11"/>
     </row>
@@ -2117,7 +2117,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2130,27 +2130,27 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="R11" s="11"/>
     </row>
@@ -2461,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="36" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2586,15 +2586,15 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
@@ -2602,11 +2602,11 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="R5" s="2"/>
     </row>
@@ -2646,15 +2646,15 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="3" t="s">
@@ -2662,11 +2662,11 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="R7" s="2"/>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -3259,7 +3259,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -3295,27 +3295,27 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -3401,23 +3401,23 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -3455,23 +3455,23 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -3557,11 +3557,11 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -3848,11 +3848,11 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4004,7 +4004,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -4043,11 +4043,11 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="8">
@@ -4161,11 +4161,11 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R19" s="7"/>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -4281,15 +4281,15 @@
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R21" s="7"/>
     </row>

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1574F538-8646-46E6-9050-918261AB17C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8DE68-D159-4651-85DA-9C2E8678ABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="2" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -2461,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8DE68-D159-4651-85DA-9C2E8678ABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4BA8B0-CC0A-46F3-AE56-33D7E03F076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="2" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -458,52 +458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2スタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２すた</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室（222,223,224）</t>
-    <rPh sb="0" eb="2">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室(225,226,227)</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室(228,229,230)</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室(231,232,233)</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研究室(234,235)</t>
-    <rPh sb="0" eb="3">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rokka-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,6 +645,68 @@
     <t>教員室(134,135)</t>
     <rPh sb="0" eb="3">
       <t>キョウインシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室（222,223,224）</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室(225,226,227)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室(228,229,230)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室(231,232,233)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員室(234,235)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウインシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2スタ
+研究室
+通路</t>
+    <rPh sb="4" eb="7">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２すた
+研究室
+通路</t>
+    <rPh sb="4" eb="7">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -785,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +837,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E02E2-4953-40E7-AFFF-805869902ED8}">
   <dimension ref="A2:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1277,7 +1296,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -1848,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2180C79C-87B2-440B-8D74-CF6EFF252748}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView zoomScale="36" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2010,16 +2029,16 @@
         <v>49</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
-        <v>52</v>
+      <c r="G7" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>53</v>
+      <c r="I7" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
-        <v>53</v>
+      <c r="K7" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11" t="s">
@@ -2071,15 +2090,15 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11" t="s">
@@ -2087,11 +2106,11 @@
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="R9" s="11"/>
     </row>
@@ -2117,7 +2136,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2130,27 +2149,27 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="R11" s="11"/>
     </row>
@@ -2461,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2646,15 +2665,15 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="3" t="s">
@@ -2662,11 +2681,11 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="R7" s="2"/>
     </row>
@@ -2706,7 +2725,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
@@ -3146,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D115D31-348E-44A5-AAB3-90315A3ABE70}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3245,7 +3264,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
@@ -3259,7 +3278,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -3295,27 +3314,27 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -3401,23 +3420,23 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -3455,23 +3474,23 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -3557,11 +3576,11 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
@@ -3611,7 +3630,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3629,7 +3648,7 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -3848,7 +3867,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
@@ -3896,7 +3915,7 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3942,7 +3961,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -3992,7 +4011,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4004,7 +4023,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -4043,11 +4062,11 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8">
@@ -4063,7 +4082,7 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="8">
@@ -4161,11 +4180,11 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
@@ -4181,7 +4200,7 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
@@ -4221,7 +4240,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4239,7 +4258,7 @@
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
@@ -4247,7 +4266,7 @@
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R19" s="7"/>
     </row>
@@ -4267,7 +4286,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -4281,15 +4300,15 @@
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="R21" s="7"/>
     </row>

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63c1fd45961f7800/デスクトップ/gitomisuke/FUNCoordinateSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4BA8B0-CC0A-46F3-AE56-33D7E03F076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7D4BA8B0-CC0A-46F3-AE56-33D7E03F076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{844DDAF1-EDD8-445D-81D9-2757530D2D98}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="1" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="14745" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
   <si>
     <t>ミュージアム</t>
     <phoneticPr fontId="1"/>
@@ -707,6 +707,13 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津呂</t>
+    <rPh sb="0" eb="2">
+      <t>ツロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1867,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2180C79C-87B2-440B-8D74-CF6EFF252748}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -3766,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
   <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="34" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="34" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4014,21 +4021,33 @@
         <v>63</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
         <v>69</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="U11" s="6" t="s">
         <v>33</v>

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63c1fd45961f7800/デスクトップ/gitomisuke/FUNCoordinateSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7D4BA8B0-CC0A-46F3-AE56-33D7E03F076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{844DDAF1-EDD8-445D-81D9-2757530D2D98}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86FE210-2449-4D3C-BB6C-8DE55C04176C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="14745" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
   <si>
     <t>ミュージアム</t>
     <phoneticPr fontId="1"/>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E02E2-4953-40E7-AFFF-805869902ED8}">
   <dimension ref="A2:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3172,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D115D31-348E-44A5-AAB3-90315A3ABE70}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3771,40 +3771,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
-  <dimension ref="A2:U23"/>
+  <dimension ref="A2:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="34" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="6"/>
-    <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="6"/>
-    <col min="4" max="4" width="5.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="6"/>
-    <col min="6" max="6" width="5.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="6"/>
-    <col min="12" max="12" width="5.625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.625" style="6"/>
-    <col min="14" max="14" width="5.625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="25.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="25.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.625" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="16.625" style="6"/>
+    <col min="1" max="2" width="16.625" style="6"/>
+    <col min="3" max="3" width="5.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="6"/>
+    <col min="5" max="5" width="5.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="6"/>
+    <col min="7" max="7" width="5.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="6"/>
+    <col min="13" max="13" width="5.625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="16.625" style="6"/>
+    <col min="15" max="15" width="5.625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.625" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="16.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6">
+    <row r="2" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="6">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3821,16 +3820,19 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
         <v>19</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -3845,12 +3847,12 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6">
         <v>18</v>
       </c>
-      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -3867,20 +3869,23 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>17</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -3893,12 +3898,12 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6">
         <v>16</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -3915,16 +3920,19 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
         <v>15</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -3939,12 +3947,12 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3961,40 +3969,43 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4011,53 +4022,56 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="7"/>
+      <c r="P11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="U11" s="6" t="s">
+      <c r="S11" s="7"/>
+      <c r="V11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
+    <row r="12" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -4074,50 +4088,53 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8">
         <v>522523524</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
+      <c r="I13" s="7"/>
+      <c r="J13" s="8">
         <v>525526527</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8">
+      <c r="K13" s="7"/>
+      <c r="L13" s="8">
         <v>528529</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8">
+      <c r="O13" s="7"/>
+      <c r="P13" s="8">
         <v>531532533</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="8">
         <v>534535536</v>
       </c>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -4134,48 +4151,51 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="6">
         <v>6</v>
       </c>
-      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -4192,50 +4212,53 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
         <v>583</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
         <v>584</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
         <v>585</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="7"/>
+      <c r="N17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="7"/>
+      <c r="P17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="6">
         <v>4</v>
       </c>
-      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -4252,48 +4275,53 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="F19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
         <v>593</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
         <v>594</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7">
+      <c r="K19" s="7"/>
+      <c r="L19" s="7">
         <v>595</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="7"/>
+      <c r="N19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -4304,95 +4332,102 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="7"/>
+      <c r="N20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="7"/>
+      <c r="P21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
         <v>0</v>
       </c>
-      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="6">
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <v>3</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <v>4</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <v>5</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>6</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>7</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>8</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <v>9</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>10</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <v>11</v>
       </c>
-      <c r="N23" s="6">
+      <c r="O23" s="6">
         <v>12</v>
       </c>
-      <c r="O23" s="6">
+      <c r="P23" s="6">
         <v>13</v>
       </c>
-      <c r="P23" s="6">
+      <c r="Q23" s="6">
         <v>14</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="R23" s="6">
         <v>15</v>
       </c>
-      <c r="R23" s="6">
+      <c r="S23" s="6">
         <v>16</v>
       </c>
     </row>

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86FE210-2449-4D3C-BB6C-8DE55C04176C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2BE0D3-0784-4605-8A5E-8C2C08E316F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="3" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="98">
   <si>
     <t>ミュージアム</t>
     <phoneticPr fontId="1"/>
@@ -714,6 +714,67 @@
     <t>津呂</t>
     <rPh sb="0" eb="2">
       <t>ツロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹き抜け通路</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>583
+通路</t>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>584
+通路</t>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>585
+通路</t>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>485
+通路</t>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>484
+通路</t>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>483
+通路</t>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -808,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,6 +907,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3172,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D115D31-348E-44A5-AAB3-90315A3ABE70}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3590,16 +3654,16 @@
         <v>61</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <v>483</v>
+      <c r="G17" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="5">
-        <v>484</v>
+      <c r="I17" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="5">
-        <v>485</v>
+      <c r="K17" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -3773,8 +3837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
   <dimension ref="A2:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="B3" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4161,22 +4225,24 @@
         <v>7</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7" t="s">
@@ -4184,11 +4250,11 @@
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="S15" s="7"/>
     </row>
@@ -4230,16 +4296,16 @@
         <v>61</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7">
-        <v>583</v>
+      <c r="H17" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>584</v>
+      <c r="J17" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="7">
-        <v>585</v>
+      <c r="L17" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="9" t="s">

--- a/map_funfun.xlsx
+++ b/map_funfun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2BE0D3-0784-4605-8A5E-8C2C08E316F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957AC428-850D-4E23-811F-6DD0974990AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="3" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="4" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -3236,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D115D31-348E-44A5-AAB3-90315A3ABE70}">
   <dimension ref="A2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -3837,8 +3837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
   <dimension ref="A2:V23"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
